--- a/output/OUTPUT5_A09.xlsx
+++ b/output/OUTPUT5_A09.xlsx
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -221,17 +221,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -245,9 +239,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -269,9 +260,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -676,9 +664,9 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -780,7 +768,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>L
 E
@@ -792,7 +780,7 @@
 E</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -939,64 +927,64 @@
       </c>
     </row>
     <row r="3" ht="35" customHeight="1">
-      <c r="A3" s="33" t="n"/>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="34" t="n"/>
-      <c r="D3" s="34" t="inlineStr">
+      <c r="A3" s="30" t="n"/>
+      <c r="B3" s="30" t="n"/>
+      <c r="C3" s="31" t="n"/>
+      <c r="D3" s="31" t="inlineStr">
         <is>
           <t>T2001838-</t>
         </is>
       </c>
-      <c r="E3" s="34" t="n"/>
-      <c r="F3" s="35" t="n"/>
-      <c r="G3" s="35" t="n"/>
-      <c r="H3" s="35" t="inlineStr">
-        <is>
-          <t>b2011265-</t>
-        </is>
-      </c>
-      <c r="I3" s="35" t="inlineStr">
+      <c r="E3" s="31" t="n"/>
+      <c r="F3" s="32" t="n"/>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>B2010840-</t>
+        </is>
+      </c>
+      <c r="H3" s="32" t="inlineStr">
+        <is>
+          <t>B2011365-</t>
+        </is>
+      </c>
+      <c r="I3" s="32" t="inlineStr">
         <is>
           <t>B2000439-</t>
         </is>
       </c>
-      <c r="J3" s="35" t="n"/>
-      <c r="K3" s="35" t="n"/>
-      <c r="L3" s="35" t="n"/>
-      <c r="M3" s="35" t="n"/>
-      <c r="N3" s="35" t="n"/>
-      <c r="O3" s="35" t="inlineStr">
+      <c r="J3" s="32" t="n"/>
+      <c r="K3" s="32" t="n"/>
+      <c r="L3" s="32" t="n"/>
+      <c r="M3" s="32" t="n"/>
+      <c r="N3" s="32" t="n"/>
+      <c r="O3" s="32" t="inlineStr">
         <is>
           <t>p1229383-</t>
         </is>
       </c>
-      <c r="P3" s="35" t="n"/>
-      <c r="Q3" s="35" t="n"/>
-      <c r="R3" s="35" t="n"/>
-      <c r="S3" s="35" t="n"/>
-      <c r="T3" s="35" t="n"/>
-      <c r="U3" s="35" t="n"/>
-      <c r="V3" s="35" t="n"/>
-      <c r="W3" s="35" t="n"/>
-      <c r="X3" s="35" t="inlineStr">
+      <c r="P3" s="32" t="n"/>
+      <c r="Q3" s="32" t="n"/>
+      <c r="R3" s="32" t="n"/>
+      <c r="S3" s="32" t="n"/>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="32" t="n"/>
+      <c r="V3" s="32" t="n"/>
+      <c r="W3" s="32" t="n"/>
+      <c r="X3" s="32" t="inlineStr">
         <is>
           <t>B1004176-</t>
         </is>
       </c>
-      <c r="Y3" s="35" t="n"/>
-      <c r="Z3" s="35" t="inlineStr">
-        <is>
-          <t>b1008613-</t>
-        </is>
-      </c>
-      <c r="AA3" s="35" t="n"/>
-      <c r="AB3" s="35" t="n"/>
-      <c r="AC3" s="35" t="n"/>
-      <c r="AD3" s="35" t="n"/>
+      <c r="Y3" s="32" t="n"/>
+      <c r="Z3" s="32" t="n"/>
+      <c r="AA3" s="32" t="n"/>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="32" t="n"/>
+      <c r="AD3" s="32" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="n"/>
-      <c r="B4" s="20" t="inlineStr">
+      <c r="A4" s="21" t="n"/>
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1143,145 +1131,148 @@
       </c>
     </row>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="33" t="n"/>
-      <c r="B5" s="33" t="n"/>
-      <c r="C5" s="34" t="inlineStr">
+      <c r="A5" s="30" t="n"/>
+      <c r="B5" s="30" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
         <is>
           <t>B1005542-</t>
         </is>
       </c>
-      <c r="D5" s="34" t="inlineStr">
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>T2001078-</t>
         </is>
       </c>
-      <c r="E5" s="34" t="inlineStr">
+      <c r="E5" s="31" t="inlineStr">
         <is>
           <t>B1005742-</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="32" t="inlineStr">
         <is>
           <t>B1005354-</t>
         </is>
       </c>
-      <c r="G5" s="36" t="inlineStr">
-        <is>
-          <t>B2010721-
-B2010840-</t>
-        </is>
-      </c>
-      <c r="H5" s="35" t="inlineStr">
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t>B2010721-</t>
+        </is>
+      </c>
+      <c r="H5" s="32" t="inlineStr">
         <is>
           <t>B2011242-</t>
         </is>
       </c>
-      <c r="I5" s="35" t="inlineStr">
+      <c r="I5" s="32" t="inlineStr">
         <is>
           <t>B2011345-</t>
         </is>
       </c>
-      <c r="J5" s="35" t="n"/>
-      <c r="K5" s="35" t="inlineStr">
+      <c r="J5" s="32" t="n"/>
+      <c r="K5" s="32" t="inlineStr">
         <is>
           <t>B2000923-</t>
         </is>
       </c>
-      <c r="L5" s="35" t="inlineStr">
+      <c r="L5" s="32" t="inlineStr">
         <is>
           <t>T1000802-</t>
         </is>
       </c>
-      <c r="M5" s="35" t="inlineStr">
+      <c r="M5" s="32" t="inlineStr">
         <is>
           <t>B2010319-</t>
         </is>
       </c>
-      <c r="N5" s="35" t="inlineStr">
+      <c r="N5" s="32" t="inlineStr">
         <is>
           <t>B1007553-</t>
         </is>
       </c>
-      <c r="O5" s="35" t="inlineStr">
-        <is>
-          <t>B1007152-</t>
-        </is>
-      </c>
-      <c r="P5" s="35" t="inlineStr">
-        <is>
-          <t>B2010086-</t>
-        </is>
-      </c>
-      <c r="Q5" s="35" t="inlineStr">
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>T2002784-</t>
+        </is>
+      </c>
+      <c r="P5" s="32" t="inlineStr">
+        <is>
+          <t>B1008197-</t>
+        </is>
+      </c>
+      <c r="Q5" s="32" t="inlineStr">
         <is>
           <t>M1015557-</t>
         </is>
       </c>
-      <c r="R5" s="35" t="inlineStr">
+      <c r="R5" s="32" t="inlineStr">
         <is>
           <t>B2009904-</t>
         </is>
       </c>
-      <c r="S5" s="35" t="inlineStr">
-        <is>
-          <t>b2000946-</t>
-        </is>
-      </c>
-      <c r="T5" s="35" t="inlineStr">
+      <c r="S5" s="32" t="inlineStr">
+        <is>
+          <t>T2000191-</t>
+        </is>
+      </c>
+      <c r="T5" s="32" t="inlineStr">
         <is>
           <t>B1004036-</t>
         </is>
       </c>
-      <c r="U5" s="35" t="inlineStr">
+      <c r="U5" s="32" t="inlineStr">
         <is>
           <t>B1000239-</t>
         </is>
       </c>
-      <c r="V5" s="35" t="inlineStr">
+      <c r="V5" s="32" t="inlineStr">
         <is>
           <t>B1007713-</t>
         </is>
       </c>
-      <c r="W5" s="35" t="inlineStr">
+      <c r="W5" s="32" t="inlineStr">
         <is>
           <t>b2000601-</t>
         </is>
       </c>
-      <c r="X5" s="35" t="inlineStr">
+      <c r="X5" s="32" t="inlineStr">
         <is>
           <t>B1000238-</t>
         </is>
       </c>
-      <c r="Y5" s="35" t="inlineStr">
+      <c r="Y5" s="32" t="inlineStr">
         <is>
           <t>B1008632-</t>
         </is>
       </c>
-      <c r="Z5" s="35" t="n"/>
-      <c r="AA5" s="35" t="inlineStr">
+      <c r="Z5" s="32" t="inlineStr">
+        <is>
+          <t>p1080376-</t>
+        </is>
+      </c>
+      <c r="AA5" s="32" t="inlineStr">
         <is>
           <t>B2010716-</t>
         </is>
       </c>
-      <c r="AB5" s="35" t="inlineStr">
-        <is>
-          <t>T2001812-</t>
-        </is>
-      </c>
-      <c r="AC5" s="35" t="inlineStr">
+      <c r="AB5" s="32" t="inlineStr">
+        <is>
+          <t>B1009211-</t>
+        </is>
+      </c>
+      <c r="AC5" s="32" t="inlineStr">
         <is>
           <t>B1007446-</t>
         </is>
       </c>
-      <c r="AD5" s="35" t="inlineStr">
+      <c r="AD5" s="32" t="inlineStr">
         <is>
           <t>B2010216-</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="n"/>
-      <c r="B6" s="20" t="inlineStr">
+      <c r="A6" s="21" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -1428,140 +1419,148 @@
       </c>
     </row>
     <row r="7" ht="35" customHeight="1">
-      <c r="A7" s="33" t="n"/>
-      <c r="B7" s="33" t="n"/>
-      <c r="C7" s="34" t="inlineStr">
+      <c r="A7" s="30" t="n"/>
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="31" t="inlineStr">
         <is>
           <t>B1005455-</t>
         </is>
       </c>
-      <c r="D7" s="34" t="inlineStr">
-        <is>
-          <t>B2000415-</t>
-        </is>
-      </c>
-      <c r="E7" s="34" t="inlineStr">
-        <is>
-          <t>b1009092-</t>
-        </is>
-      </c>
-      <c r="F7" s="35" t="n"/>
-      <c r="G7" s="35" t="inlineStr">
+      <c r="D7" s="31" t="inlineStr">
+        <is>
+          <t>B2012211-</t>
+        </is>
+      </c>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>t2002347-</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="inlineStr">
+        <is>
+          <t>B1007113-</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
         <is>
           <t>b1008311-</t>
         </is>
       </c>
-      <c r="H7" s="35" t="inlineStr">
+      <c r="H7" s="32" t="inlineStr">
         <is>
           <t>B1000159-</t>
         </is>
       </c>
-      <c r="I7" s="35" t="inlineStr">
-        <is>
-          <t>B2011224-</t>
-        </is>
-      </c>
-      <c r="J7" s="35" t="n"/>
-      <c r="K7" s="35" t="inlineStr">
+      <c r="I7" s="32" t="inlineStr">
+        <is>
+          <t>B2012304-</t>
+        </is>
+      </c>
+      <c r="J7" s="32" t="n"/>
+      <c r="K7" s="32" t="inlineStr">
         <is>
           <t>B2010311-</t>
         </is>
       </c>
-      <c r="L7" s="35" t="inlineStr">
+      <c r="L7" s="32" t="inlineStr">
         <is>
           <t>B2009954-</t>
         </is>
       </c>
-      <c r="M7" s="35" t="inlineStr">
+      <c r="M7" s="32" t="inlineStr">
         <is>
           <t>B2010310-</t>
         </is>
       </c>
-      <c r="N7" s="35" t="inlineStr">
-        <is>
-          <t>B2009950-</t>
-        </is>
-      </c>
-      <c r="O7" s="35" t="inlineStr">
+      <c r="N7" s="32" t="inlineStr">
+        <is>
+          <t>X1000297-</t>
+        </is>
+      </c>
+      <c r="O7" s="32" t="inlineStr">
         <is>
           <t>B2010580-</t>
         </is>
       </c>
-      <c r="P7" s="35" t="inlineStr">
+      <c r="P7" s="32" t="inlineStr">
         <is>
           <t>B2009973-</t>
         </is>
       </c>
-      <c r="Q7" s="35" t="inlineStr">
+      <c r="Q7" s="32" t="inlineStr">
         <is>
           <t>B2011190-</t>
         </is>
       </c>
-      <c r="R7" s="35" t="inlineStr">
+      <c r="R7" s="32" t="inlineStr">
         <is>
           <t>T2001257-</t>
         </is>
       </c>
-      <c r="S7" s="35" t="inlineStr">
-        <is>
-          <t>m1012346-</t>
-        </is>
-      </c>
-      <c r="T7" s="35" t="inlineStr">
+      <c r="S7" s="32" t="inlineStr">
+        <is>
+          <t>B1008740-</t>
+        </is>
+      </c>
+      <c r="T7" s="32" t="inlineStr">
         <is>
           <t>B2010307-</t>
         </is>
       </c>
-      <c r="U7" s="35" t="inlineStr">
+      <c r="U7" s="32" t="inlineStr">
         <is>
           <t>B2010415-</t>
         </is>
       </c>
-      <c r="V7" s="35" t="inlineStr">
+      <c r="V7" s="32" t="inlineStr">
         <is>
           <t>B2000950-</t>
         </is>
       </c>
-      <c r="W7" s="35" t="inlineStr">
+      <c r="W7" s="32" t="inlineStr">
         <is>
           <t>B2010392-</t>
         </is>
       </c>
-      <c r="X7" s="35" t="inlineStr">
+      <c r="X7" s="32" t="inlineStr">
         <is>
           <t>T1000511-</t>
         </is>
       </c>
-      <c r="Y7" s="35" t="inlineStr">
+      <c r="Y7" s="32" t="inlineStr">
         <is>
           <t>b1000237-</t>
         </is>
       </c>
-      <c r="Z7" s="35" t="inlineStr">
+      <c r="Z7" s="32" t="inlineStr">
         <is>
           <t>B2010720-</t>
         </is>
       </c>
-      <c r="AA7" s="35" t="inlineStr">
+      <c r="AA7" s="32" t="inlineStr">
         <is>
           <t>B2011367-</t>
         </is>
       </c>
-      <c r="AB7" s="35" t="inlineStr">
+      <c r="AB7" s="32" t="inlineStr">
         <is>
           <t>b1005459-</t>
         </is>
       </c>
-      <c r="AC7" s="35" t="n"/>
-      <c r="AD7" s="35" t="inlineStr">
-        <is>
-          <t>B2010633-</t>
+      <c r="AC7" s="32" t="inlineStr">
+        <is>
+          <t>T1001249-</t>
+        </is>
+      </c>
+      <c r="AD7" s="32" t="inlineStr">
+        <is>
+          <t>M1012331-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="n"/>
-      <c r="B8" s="20" t="inlineStr">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1708,140 +1707,148 @@
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="33" t="n"/>
-      <c r="B9" s="33" t="n"/>
-      <c r="C9" s="34" t="inlineStr">
-        <is>
-          <t>B1009163-</t>
-        </is>
-      </c>
-      <c r="D9" s="34" t="inlineStr">
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="30" t="n"/>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>B2011261-</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
         <is>
           <t>T2001762-</t>
         </is>
       </c>
-      <c r="E9" s="34" t="inlineStr">
+      <c r="E9" s="31" t="inlineStr">
         <is>
           <t>T1000484-</t>
         </is>
       </c>
-      <c r="F9" s="35" t="inlineStr">
-        <is>
-          <t>T1000759-</t>
-        </is>
-      </c>
-      <c r="G9" s="35" t="inlineStr">
+      <c r="F9" s="32" t="inlineStr">
+        <is>
+          <t>B2000681-</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
         <is>
           <t>b2000068-</t>
         </is>
       </c>
-      <c r="H9" s="35" t="inlineStr">
+      <c r="H9" s="32" t="inlineStr">
         <is>
           <t>B2000843-</t>
         </is>
       </c>
-      <c r="I9" s="35" t="inlineStr">
+      <c r="I9" s="32" t="inlineStr">
         <is>
           <t>B1006859-</t>
         </is>
       </c>
-      <c r="J9" s="35" t="n"/>
-      <c r="K9" s="35" t="inlineStr">
+      <c r="J9" s="32" t="n"/>
+      <c r="K9" s="32" t="inlineStr">
         <is>
           <t>B2011228-</t>
         </is>
       </c>
-      <c r="L9" s="35" t="inlineStr">
+      <c r="L9" s="32" t="inlineStr">
         <is>
           <t>B2010666-</t>
         </is>
       </c>
-      <c r="M9" s="35" t="inlineStr">
-        <is>
-          <t>B2010702-</t>
-        </is>
-      </c>
-      <c r="N9" s="35" t="inlineStr">
-        <is>
-          <t>B2000902-</t>
-        </is>
-      </c>
-      <c r="O9" s="35" t="inlineStr">
+      <c r="M9" s="32" t="inlineStr">
+        <is>
+          <t>T2000318-</t>
+        </is>
+      </c>
+      <c r="N9" s="32" t="inlineStr">
+        <is>
+          <t>B2012291-</t>
+        </is>
+      </c>
+      <c r="O9" s="32" t="inlineStr">
         <is>
           <t>b1005368-</t>
         </is>
       </c>
-      <c r="P9" s="35" t="inlineStr">
+      <c r="P9" s="32" t="inlineStr">
         <is>
           <t>B1000151-</t>
         </is>
       </c>
-      <c r="Q9" s="35" t="inlineStr">
+      <c r="Q9" s="32" t="inlineStr">
         <is>
           <t>B1007340-</t>
         </is>
       </c>
-      <c r="R9" s="35" t="n"/>
-      <c r="S9" s="35" t="inlineStr">
+      <c r="R9" s="32" t="inlineStr">
+        <is>
+          <t>B2000607-</t>
+        </is>
+      </c>
+      <c r="S9" s="32" t="inlineStr">
         <is>
           <t>B2011311-</t>
         </is>
       </c>
-      <c r="T9" s="35" t="inlineStr">
-        <is>
-          <t>B1007774-</t>
-        </is>
-      </c>
-      <c r="U9" s="35" t="inlineStr">
+      <c r="T9" s="32" t="inlineStr">
+        <is>
+          <t>T2000307-</t>
+        </is>
+      </c>
+      <c r="U9" s="32" t="inlineStr">
         <is>
           <t>B2000910-</t>
         </is>
       </c>
-      <c r="V9" s="35" t="inlineStr">
+      <c r="V9" s="32" t="inlineStr">
         <is>
           <t>B2011223-</t>
         </is>
       </c>
-      <c r="W9" s="35" t="inlineStr">
+      <c r="W9" s="32" t="inlineStr">
         <is>
           <t>B2011354-</t>
         </is>
       </c>
-      <c r="X9" s="35" t="inlineStr">
-        <is>
-          <t>T2002684-</t>
-        </is>
-      </c>
-      <c r="Y9" s="35" t="n"/>
-      <c r="Z9" s="35" t="inlineStr">
-        <is>
-          <t>B2010251-</t>
-        </is>
-      </c>
-      <c r="AA9" s="35" t="inlineStr">
+      <c r="X9" s="32" t="inlineStr">
+        <is>
+          <t>X1000068-</t>
+        </is>
+      </c>
+      <c r="Y9" s="32" t="inlineStr">
+        <is>
+          <t>B1007708-</t>
+        </is>
+      </c>
+      <c r="Z9" s="32" t="inlineStr">
+        <is>
+          <t>T2000165-</t>
+        </is>
+      </c>
+      <c r="AA9" s="32" t="inlineStr">
         <is>
           <t>b2010639-</t>
         </is>
       </c>
-      <c r="AB9" s="35" t="inlineStr">
-        <is>
-          <t>B1000631-</t>
-        </is>
-      </c>
-      <c r="AC9" s="35" t="inlineStr">
+      <c r="AB9" s="32" t="inlineStr">
+        <is>
+          <t>X1000327-</t>
+        </is>
+      </c>
+      <c r="AC9" s="32" t="inlineStr">
         <is>
           <t>B2010242-</t>
         </is>
       </c>
-      <c r="AD9" s="35" t="inlineStr">
+      <c r="AD9" s="32" t="inlineStr">
         <is>
           <t>b2011201-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="n"/>
-      <c r="B10" s="20" t="inlineStr">
+      <c r="A10" s="21" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1988,146 +1995,148 @@
       </c>
     </row>
     <row r="11" ht="35" customHeight="1">
-      <c r="A11" s="33" t="n"/>
-      <c r="B11" s="33" t="n"/>
-      <c r="C11" s="34" t="inlineStr">
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>B2000792-</t>
         </is>
       </c>
-      <c r="D11" s="34" t="inlineStr">
-        <is>
-          <t>b1008548-</t>
-        </is>
-      </c>
-      <c r="E11" s="37" t="inlineStr">
-        <is>
-          <t>B2000382-
-b2010549-</t>
-        </is>
-      </c>
-      <c r="F11" s="35" t="inlineStr">
-        <is>
-          <t>T1000885-</t>
-        </is>
-      </c>
-      <c r="G11" s="35" t="inlineStr">
+      <c r="D11" s="31" t="inlineStr">
+        <is>
+          <t>T2003388-</t>
+        </is>
+      </c>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>b2010549-</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
+        <is>
+          <t>B2011519-</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
         <is>
           <t>B2010570-</t>
         </is>
       </c>
-      <c r="H11" s="35" t="n"/>
-      <c r="I11" s="35" t="inlineStr">
+      <c r="H11" s="32" t="inlineStr">
+        <is>
+          <t>b2010979-</t>
+        </is>
+      </c>
+      <c r="I11" s="32" t="inlineStr">
         <is>
           <t>B2010072-</t>
         </is>
       </c>
-      <c r="J11" s="35" t="n"/>
-      <c r="K11" s="35" t="inlineStr">
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="32" t="inlineStr">
         <is>
           <t>B2000828-</t>
         </is>
       </c>
-      <c r="L11" s="35" t="inlineStr">
+      <c r="L11" s="32" t="inlineStr">
         <is>
           <t>B2000833-</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="32" t="inlineStr">
         <is>
           <t>B2000832-</t>
         </is>
       </c>
-      <c r="N11" s="35" t="inlineStr">
+      <c r="N11" s="32" t="inlineStr">
         <is>
           <t>M1013127-</t>
         </is>
       </c>
-      <c r="O11" s="35" t="inlineStr">
-        <is>
-          <t>B1005472-</t>
-        </is>
-      </c>
-      <c r="P11" s="35" t="inlineStr">
+      <c r="O11" s="32" t="inlineStr">
+        <is>
+          <t>T1000489-</t>
+        </is>
+      </c>
+      <c r="P11" s="32" t="inlineStr">
         <is>
           <t>B2010621-</t>
         </is>
       </c>
-      <c r="Q11" s="35" t="inlineStr">
-        <is>
-          <t>T2002716-</t>
-        </is>
-      </c>
-      <c r="R11" s="36" t="inlineStr">
-        <is>
-          <t>B2010183-
-T1000983-</t>
-        </is>
-      </c>
-      <c r="S11" s="35" t="inlineStr">
+      <c r="Q11" s="32" t="inlineStr">
+        <is>
+          <t>T1000811-</t>
+        </is>
+      </c>
+      <c r="R11" s="32" t="inlineStr">
+        <is>
+          <t>B2010183-</t>
+        </is>
+      </c>
+      <c r="S11" s="32" t="inlineStr">
         <is>
           <t>B2000850-</t>
         </is>
       </c>
-      <c r="T11" s="35" t="inlineStr">
+      <c r="T11" s="32" t="inlineStr">
         <is>
           <t>T1000458-</t>
         </is>
       </c>
-      <c r="U11" s="35" t="inlineStr">
+      <c r="U11" s="32" t="inlineStr">
         <is>
           <t>B2010712-</t>
         </is>
       </c>
-      <c r="V11" s="35" t="inlineStr">
+      <c r="V11" s="32" t="inlineStr">
         <is>
           <t>B2010207-</t>
         </is>
       </c>
-      <c r="W11" s="35" t="inlineStr">
+      <c r="W11" s="32" t="inlineStr">
         <is>
           <t>P1222461-</t>
         </is>
       </c>
-      <c r="X11" s="35" t="inlineStr">
+      <c r="X11" s="32" t="inlineStr">
         <is>
           <t>B2000854-</t>
         </is>
       </c>
-      <c r="Y11" s="35" t="inlineStr">
+      <c r="Y11" s="32" t="inlineStr">
         <is>
           <t>B2000386-</t>
         </is>
       </c>
-      <c r="Z11" s="35" t="inlineStr">
+      <c r="Z11" s="32" t="inlineStr">
         <is>
           <t>b2010277-</t>
         </is>
       </c>
-      <c r="AA11" s="35" t="inlineStr">
+      <c r="AA11" s="32" t="inlineStr">
         <is>
           <t>B2011213-</t>
         </is>
       </c>
-      <c r="AB11" s="35" t="inlineStr">
-        <is>
-          <t>B2000826-</t>
-        </is>
-      </c>
-      <c r="AC11" s="35" t="inlineStr">
+      <c r="AB11" s="32" t="inlineStr">
+        <is>
+          <t>T2001760-</t>
+        </is>
+      </c>
+      <c r="AC11" s="32" t="inlineStr">
         <is>
           <t>b1008219-</t>
         </is>
       </c>
-      <c r="AD11" s="35" t="inlineStr">
+      <c r="AD11" s="32" t="inlineStr">
         <is>
           <t>B2011385-</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="n"/>
-      <c r="B12" s="20" t="inlineStr">
+      <c r="A12" s="21" t="n"/>
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -2274,147 +2283,148 @@
       </c>
     </row>
     <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="33" t="n"/>
-      <c r="B13" s="33" t="n"/>
-      <c r="C13" s="34" t="inlineStr">
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="31" t="inlineStr">
         <is>
           <t>b2010735-</t>
         </is>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="31" t="inlineStr">
         <is>
           <t>b1008434-</t>
         </is>
       </c>
-      <c r="E13" s="35" t="inlineStr">
-        <is>
-          <t>t1001022-</t>
-        </is>
-      </c>
-      <c r="F13" s="35" t="inlineStr">
+      <c r="E13" s="32" t="inlineStr">
+        <is>
+          <t>B2010608-</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="inlineStr">
         <is>
           <t>M1003767-</t>
         </is>
       </c>
-      <c r="G13" s="35" t="inlineStr">
+      <c r="G13" s="32" t="inlineStr">
         <is>
           <t>B2011324-</t>
         </is>
       </c>
-      <c r="H13" s="35" t="inlineStr">
+      <c r="H13" s="32" t="inlineStr">
         <is>
           <t>T2002769-</t>
         </is>
       </c>
-      <c r="I13" s="35" t="inlineStr">
+      <c r="I13" s="32" t="inlineStr">
         <is>
           <t>B2010321-</t>
         </is>
       </c>
-      <c r="J13" s="35" t="n"/>
-      <c r="K13" s="35" t="inlineStr">
-        <is>
-          <t>t1000217-</t>
-        </is>
-      </c>
-      <c r="L13" s="35" t="inlineStr">
+      <c r="J13" s="32" t="n"/>
+      <c r="K13" s="32" t="inlineStr">
+        <is>
+          <t>B2012274-</t>
+        </is>
+      </c>
+      <c r="L13" s="32" t="inlineStr">
         <is>
           <t>T2002773-</t>
         </is>
       </c>
-      <c r="M13" s="35" t="inlineStr">
-        <is>
-          <t>t2000107-</t>
-        </is>
-      </c>
-      <c r="N13" s="35" t="inlineStr">
+      <c r="M13" s="32" t="inlineStr">
+        <is>
+          <t>T1001053-</t>
+        </is>
+      </c>
+      <c r="N13" s="32" t="inlineStr">
         <is>
           <t>B2010846-</t>
         </is>
       </c>
-      <c r="O13" s="35" t="inlineStr">
-        <is>
-          <t>T2002748-</t>
-        </is>
-      </c>
-      <c r="P13" s="35" t="inlineStr">
+      <c r="O13" s="32" t="inlineStr">
+        <is>
+          <t>t2003456-</t>
+        </is>
+      </c>
+      <c r="P13" s="32" t="inlineStr">
         <is>
           <t>B1007122-</t>
         </is>
       </c>
-      <c r="Q13" s="35" t="inlineStr">
-        <is>
-          <t>B2000693-</t>
-        </is>
-      </c>
-      <c r="R13" s="35" t="inlineStr">
+      <c r="Q13" s="33" t="inlineStr">
+        <is>
+          <t>B2000693-
+U1000104-</t>
+        </is>
+      </c>
+      <c r="R13" s="32" t="inlineStr">
         <is>
           <t>M1017525-</t>
         </is>
       </c>
-      <c r="S13" s="35" t="inlineStr">
-        <is>
-          <t>T1000653-</t>
-        </is>
-      </c>
-      <c r="T13" s="35" t="inlineStr">
+      <c r="S13" s="32" t="inlineStr">
+        <is>
+          <t>M1009363-</t>
+        </is>
+      </c>
+      <c r="T13" s="32" t="inlineStr">
         <is>
           <t>B2000125-</t>
         </is>
       </c>
-      <c r="U13" s="35" t="inlineStr">
+      <c r="U13" s="32" t="inlineStr">
         <is>
           <t>B2010305-</t>
         </is>
       </c>
-      <c r="V13" s="35" t="inlineStr">
+      <c r="V13" s="32" t="inlineStr">
         <is>
           <t>B2010322-</t>
         </is>
       </c>
-      <c r="W13" s="35" t="inlineStr">
+      <c r="W13" s="32" t="inlineStr">
         <is>
           <t>B2010581-</t>
         </is>
       </c>
-      <c r="X13" s="35" t="inlineStr">
+      <c r="X13" s="32" t="inlineStr">
         <is>
           <t>B2011192-</t>
         </is>
       </c>
-      <c r="Y13" s="35" t="inlineStr">
+      <c r="Y13" s="32" t="inlineStr">
         <is>
           <t>B2000304-</t>
         </is>
       </c>
-      <c r="Z13" s="35" t="inlineStr">
+      <c r="Z13" s="32" t="inlineStr">
         <is>
           <t>B2000279-</t>
         </is>
       </c>
-      <c r="AA13" s="35" t="inlineStr">
+      <c r="AA13" s="32" t="inlineStr">
         <is>
           <t>B1005307-</t>
         </is>
       </c>
-      <c r="AB13" s="35" t="inlineStr">
+      <c r="AB13" s="32" t="inlineStr">
         <is>
           <t>T2000321-</t>
         </is>
       </c>
-      <c r="AC13" s="35" t="inlineStr">
+      <c r="AC13" s="32" t="inlineStr">
         <is>
           <t>B2000872-</t>
         </is>
       </c>
-      <c r="AD13" s="35" t="inlineStr">
+      <c r="AD13" s="32" t="inlineStr">
         <is>
           <t>T2000016-</t>
         </is>
       </c>
     </row>
     <row r="14" ht="11" customFormat="1" customHeight="1" s="17">
-      <c r="A14" s="23" t="n"/>
+      <c r="A14" s="21" t="n"/>
       <c r="B14" s="16" t="inlineStr">
         <is>
           <t>A</t>
@@ -2562,124 +2572,136 @@
       </c>
     </row>
     <row r="15" ht="35" customHeight="1">
-      <c r="A15" s="38" t="n"/>
-      <c r="B15" s="38" t="n"/>
-      <c r="C15" s="34" t="inlineStr">
+      <c r="A15" s="34" t="n"/>
+      <c r="B15" s="34" t="n"/>
+      <c r="C15" s="31" t="inlineStr">
         <is>
           <t>U1000059-</t>
         </is>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="31" t="inlineStr">
         <is>
           <t>U1000031-</t>
         </is>
       </c>
-      <c r="E15" s="34" t="inlineStr">
+      <c r="E15" s="31" t="inlineStr">
         <is>
           <t>U1000034-</t>
         </is>
       </c>
-      <c r="F15" s="34" t="inlineStr">
+      <c r="F15" s="31" t="inlineStr">
         <is>
           <t>U1000032-</t>
         </is>
       </c>
-      <c r="G15" s="34" t="inlineStr">
+      <c r="G15" s="31" t="inlineStr">
         <is>
           <t>u1000052-</t>
         </is>
       </c>
-      <c r="H15" s="34" t="n"/>
-      <c r="I15" s="34" t="inlineStr">
-        <is>
-          <t>b1008896-</t>
-        </is>
-      </c>
-      <c r="J15" s="34" t="n"/>
-      <c r="K15" s="34" t="inlineStr">
-        <is>
-          <t>T2002753-</t>
-        </is>
-      </c>
-      <c r="L15" s="34" t="n"/>
-      <c r="M15" s="34" t="inlineStr">
+      <c r="H15" s="31" t="inlineStr">
+        <is>
+          <t>B2012226-</t>
+        </is>
+      </c>
+      <c r="I15" s="31" t="inlineStr">
+        <is>
+          <t>B2012228-</t>
+        </is>
+      </c>
+      <c r="J15" s="31" t="n"/>
+      <c r="K15" s="31" t="inlineStr">
+        <is>
+          <t>T2000210-</t>
+        </is>
+      </c>
+      <c r="L15" s="31" t="inlineStr">
+        <is>
+          <t>B1005781-</t>
+        </is>
+      </c>
+      <c r="M15" s="31" t="inlineStr">
         <is>
           <t>B2010422-</t>
         </is>
       </c>
-      <c r="N15" s="34" t="inlineStr">
+      <c r="N15" s="31" t="inlineStr">
         <is>
           <t>T2002743-</t>
         </is>
       </c>
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="inlineStr">
+      <c r="O15" s="31" t="n"/>
+      <c r="P15" s="31" t="inlineStr">
         <is>
           <t>B2010428-</t>
         </is>
       </c>
-      <c r="Q15" s="34" t="n"/>
-      <c r="R15" s="34" t="inlineStr">
-        <is>
-          <t>B1004024-</t>
-        </is>
-      </c>
-      <c r="S15" s="34" t="inlineStr">
+      <c r="Q15" s="31" t="n"/>
+      <c r="R15" s="31" t="inlineStr">
+        <is>
+          <t>B2010352-</t>
+        </is>
+      </c>
+      <c r="S15" s="31" t="inlineStr">
         <is>
           <t>b1004957-</t>
         </is>
       </c>
-      <c r="T15" s="34" t="inlineStr">
+      <c r="T15" s="31" t="inlineStr">
         <is>
           <t>B1000343-</t>
         </is>
       </c>
-      <c r="U15" s="34" t="inlineStr">
+      <c r="U15" s="31" t="inlineStr">
         <is>
           <t>U1000131-</t>
         </is>
       </c>
-      <c r="V15" s="34" t="inlineStr">
+      <c r="V15" s="31" t="inlineStr">
         <is>
           <t>M1016786-</t>
         </is>
       </c>
-      <c r="W15" s="34" t="inlineStr">
+      <c r="W15" s="31" t="inlineStr">
         <is>
           <t>t2001476-</t>
         </is>
       </c>
-      <c r="X15" s="34" t="inlineStr">
+      <c r="X15" s="31" t="inlineStr">
         <is>
           <t>B1008014-</t>
         </is>
       </c>
-      <c r="Y15" s="34" t="inlineStr">
-        <is>
-          <t>B2010361-</t>
-        </is>
-      </c>
-      <c r="Z15" s="34" t="inlineStr">
-        <is>
-          <t>T2002688-</t>
-        </is>
-      </c>
-      <c r="AA15" s="34" t="inlineStr">
+      <c r="Y15" s="31" t="inlineStr">
+        <is>
+          <t>U1000091-</t>
+        </is>
+      </c>
+      <c r="Z15" s="31" t="inlineStr">
+        <is>
+          <t>b2000341-</t>
+        </is>
+      </c>
+      <c r="AA15" s="31" t="inlineStr">
         <is>
           <t>B2010556-</t>
         </is>
       </c>
-      <c r="AB15" s="34" t="inlineStr">
-        <is>
-          <t>B1005284-</t>
-        </is>
-      </c>
-      <c r="AC15" s="34" t="inlineStr">
+      <c r="AB15" s="31" t="inlineStr">
+        <is>
+          <t>b2000719-</t>
+        </is>
+      </c>
+      <c r="AC15" s="31" t="inlineStr">
         <is>
           <t>B1005851-</t>
         </is>
       </c>
-      <c r="AD15" s="34" t="n"/>
+      <c r="AD15" s="31" t="inlineStr">
+        <is>
+          <t>P1233219-</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" s="6" t="n"/>
@@ -2918,7 +2940,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>R
 I
@@ -2931,7 +2953,7 @@
 E</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -3078,92 +3100,96 @@
       </c>
     </row>
     <row r="19" ht="35" customHeight="1">
-      <c r="A19" s="33" t="n"/>
-      <c r="B19" s="35" t="n"/>
-      <c r="C19" s="35" t="n"/>
-      <c r="D19" s="35" t="inlineStr">
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="32" t="n"/>
+      <c r="C19" s="32" t="n"/>
+      <c r="D19" s="32" t="inlineStr">
         <is>
           <t>B1004571-</t>
         </is>
       </c>
-      <c r="E19" s="35" t="n"/>
-      <c r="F19" s="35" t="n"/>
-      <c r="G19" s="35" t="n"/>
-      <c r="H19" s="35" t="n"/>
-      <c r="I19" s="35" t="n"/>
-      <c r="J19" s="35" t="n"/>
-      <c r="K19" s="35" t="inlineStr">
+      <c r="E19" s="32" t="n"/>
+      <c r="F19" s="32" t="n"/>
+      <c r="G19" s="32" t="n"/>
+      <c r="H19" s="32" t="inlineStr">
+        <is>
+          <t>M1000247-</t>
+        </is>
+      </c>
+      <c r="I19" s="32" t="n"/>
+      <c r="J19" s="32" t="n"/>
+      <c r="K19" s="32" t="inlineStr">
         <is>
           <t>B1007483-</t>
         </is>
       </c>
-      <c r="L19" s="35" t="n"/>
-      <c r="M19" s="35" t="n"/>
-      <c r="N19" s="35" t="n"/>
-      <c r="O19" s="35" t="inlineStr">
+      <c r="L19" s="32" t="n"/>
+      <c r="M19" s="32" t="n"/>
+      <c r="N19" s="32" t="n"/>
+      <c r="O19" s="32" t="inlineStr">
         <is>
           <t>B1008577-</t>
         </is>
       </c>
-      <c r="P19" s="35" t="inlineStr">
+      <c r="P19" s="32" t="inlineStr">
         <is>
           <t>b1008071-</t>
         </is>
       </c>
-      <c r="Q19" s="35" t="inlineStr">
+      <c r="Q19" s="32" t="inlineStr">
         <is>
           <t>b2010485-</t>
         </is>
       </c>
-      <c r="R19" s="35" t="inlineStr">
+      <c r="R19" s="32" t="inlineStr">
         <is>
           <t>B1001267-</t>
         </is>
       </c>
-      <c r="S19" s="35" t="n"/>
-      <c r="T19" s="35" t="n"/>
-      <c r="U19" s="35" t="n"/>
-      <c r="V19" s="35" t="n"/>
-      <c r="W19" s="35" t="n"/>
-      <c r="X19" s="35" t="inlineStr">
+      <c r="S19" s="32" t="inlineStr">
+        <is>
+          <t>B2011402-</t>
+        </is>
+      </c>
+      <c r="T19" s="32" t="n"/>
+      <c r="U19" s="32" t="n"/>
+      <c r="V19" s="32" t="n"/>
+      <c r="W19" s="32" t="n"/>
+      <c r="X19" s="32" t="inlineStr">
         <is>
           <t>B2000802-</t>
         </is>
       </c>
-      <c r="Y19" s="35" t="inlineStr">
+      <c r="Y19" s="32" t="inlineStr">
         <is>
           <t>M1011087-</t>
         </is>
       </c>
-      <c r="Z19" s="35" t="inlineStr">
+      <c r="Z19" s="32" t="inlineStr">
         <is>
           <t>B1006996-</t>
         </is>
       </c>
-      <c r="AA19" s="35" t="inlineStr">
+      <c r="AA19" s="32" t="inlineStr">
         <is>
           <t>B2011155-</t>
         </is>
       </c>
-      <c r="AB19" s="35" t="inlineStr">
+      <c r="AB19" s="32" t="inlineStr">
         <is>
           <t>T1000158-</t>
         </is>
       </c>
-      <c r="AC19" s="35" t="inlineStr">
+      <c r="AC19" s="32" t="inlineStr">
         <is>
           <t>B1006702-</t>
         </is>
       </c>
-      <c r="AD19" s="35" t="inlineStr">
-        <is>
-          <t>B2000435-</t>
-        </is>
-      </c>
+      <c r="AD19" s="32" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="n"/>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="A20" s="21" t="n"/>
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3310,144 +3336,144 @@
       </c>
     </row>
     <row r="21" ht="35" customHeight="1">
-      <c r="A21" s="33" t="n"/>
-      <c r="B21" s="35" t="n"/>
-      <c r="C21" s="35" t="inlineStr">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="32" t="n"/>
+      <c r="C21" s="32" t="inlineStr">
         <is>
           <t>B2010052-</t>
         </is>
       </c>
-      <c r="D21" s="35" t="inlineStr">
+      <c r="D21" s="32" t="inlineStr">
         <is>
           <t>b2000800-</t>
         </is>
       </c>
-      <c r="E21" s="35" t="inlineStr">
+      <c r="E21" s="32" t="inlineStr">
         <is>
           <t>T2002786-</t>
         </is>
       </c>
-      <c r="F21" s="35" t="inlineStr">
+      <c r="F21" s="32" t="inlineStr">
         <is>
           <t>E1000168-</t>
         </is>
       </c>
-      <c r="G21" s="35" t="inlineStr">
-        <is>
-          <t>B1000165-</t>
-        </is>
-      </c>
-      <c r="H21" s="35" t="n"/>
-      <c r="I21" s="35" t="inlineStr">
+      <c r="G21" s="32" t="inlineStr">
+        <is>
+          <t>B2000665-</t>
+        </is>
+      </c>
+      <c r="H21" s="32" t="inlineStr">
+        <is>
+          <t>B2011409-</t>
+        </is>
+      </c>
+      <c r="I21" s="32" t="inlineStr">
         <is>
           <t>b2010501-</t>
         </is>
       </c>
-      <c r="J21" s="35" t="inlineStr">
+      <c r="J21" s="32" t="inlineStr">
         <is>
           <t>B1005601-</t>
         </is>
       </c>
-      <c r="K21" s="35" t="n"/>
-      <c r="L21" s="35" t="inlineStr">
+      <c r="K21" s="32" t="inlineStr">
+        <is>
+          <t>P1224921-</t>
+        </is>
+      </c>
+      <c r="L21" s="32" t="inlineStr">
         <is>
           <t>B2010710-</t>
         </is>
       </c>
-      <c r="M21" s="35" t="inlineStr">
-        <is>
-          <t>b1007705-</t>
-        </is>
-      </c>
-      <c r="N21" s="35" t="inlineStr">
+      <c r="M21" s="32" t="n"/>
+      <c r="N21" s="32" t="inlineStr">
         <is>
           <t>m1015575-</t>
         </is>
       </c>
-      <c r="O21" s="35" t="inlineStr">
+      <c r="O21" s="32" t="inlineStr">
         <is>
           <t>B1006194-</t>
         </is>
       </c>
-      <c r="P21" s="35" t="inlineStr">
+      <c r="P21" s="32" t="inlineStr">
         <is>
           <t>b2000970-</t>
         </is>
       </c>
-      <c r="Q21" s="35" t="inlineStr">
-        <is>
-          <t>B2010160-</t>
-        </is>
-      </c>
-      <c r="R21" s="35" t="inlineStr">
+      <c r="Q21" s="32" t="inlineStr">
+        <is>
+          <t>M1012272-</t>
+        </is>
+      </c>
+      <c r="R21" s="32" t="inlineStr">
         <is>
           <t>b2000787-</t>
         </is>
       </c>
-      <c r="S21" s="35" t="inlineStr">
-        <is>
-          <t>B1001232-</t>
-        </is>
-      </c>
-      <c r="T21" s="35" t="inlineStr">
-        <is>
-          <t>B2010143-</t>
-        </is>
-      </c>
-      <c r="U21" s="35" t="inlineStr">
-        <is>
-          <t>p1227289-</t>
-        </is>
-      </c>
-      <c r="V21" s="35" t="inlineStr">
+      <c r="S21" s="32" t="inlineStr">
+        <is>
+          <t>B2010409-</t>
+        </is>
+      </c>
+      <c r="T21" s="32" t="inlineStr">
+        <is>
+          <t>P1231954-</t>
+        </is>
+      </c>
+      <c r="U21" s="32" t="inlineStr">
+        <is>
+          <t>B2000626-</t>
+        </is>
+      </c>
+      <c r="V21" s="32" t="inlineStr">
         <is>
           <t>P1227370-</t>
         </is>
       </c>
-      <c r="W21" s="35" t="inlineStr">
-        <is>
-          <t>B2010074-</t>
-        </is>
-      </c>
-      <c r="X21" s="35" t="inlineStr">
-        <is>
-          <t>b2000780-</t>
-        </is>
-      </c>
-      <c r="Y21" s="35" t="inlineStr">
-        <is>
-          <t>T2001943-</t>
-        </is>
-      </c>
-      <c r="Z21" s="35" t="inlineStr">
+      <c r="W21" s="32" t="n"/>
+      <c r="X21" s="32" t="inlineStr">
+        <is>
+          <t>B2012217-</t>
+        </is>
+      </c>
+      <c r="Y21" s="32" t="inlineStr">
+        <is>
+          <t>B2012306-</t>
+        </is>
+      </c>
+      <c r="Z21" s="32" t="inlineStr">
         <is>
           <t>b2000794-</t>
         </is>
       </c>
-      <c r="AA21" s="35" t="inlineStr">
+      <c r="AA21" s="32" t="inlineStr">
         <is>
           <t>B2010877-</t>
         </is>
       </c>
-      <c r="AB21" s="35" t="inlineStr">
+      <c r="AB21" s="32" t="inlineStr">
         <is>
           <t>B2000168-</t>
         </is>
       </c>
-      <c r="AC21" s="35" t="inlineStr">
-        <is>
-          <t>b1008616-</t>
-        </is>
-      </c>
-      <c r="AD21" s="35" t="inlineStr">
+      <c r="AC21" s="32" t="inlineStr">
+        <is>
+          <t>B2009941-</t>
+        </is>
+      </c>
+      <c r="AD21" s="32" t="inlineStr">
         <is>
           <t>B2010809-</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="n"/>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="A22" s="21" t="n"/>
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -3594,152 +3620,153 @@
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
-      <c r="A23" s="33" t="n"/>
-      <c r="B23" s="35" t="n"/>
-      <c r="C23" s="35" t="inlineStr">
-        <is>
-          <t>B1005819-</t>
-        </is>
-      </c>
-      <c r="D23" s="35" t="inlineStr">
-        <is>
-          <t>B1005630-</t>
-        </is>
-      </c>
-      <c r="E23" s="35" t="inlineStr">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="32" t="n"/>
+      <c r="C23" s="32" t="inlineStr">
+        <is>
+          <t>M1015633-</t>
+        </is>
+      </c>
+      <c r="D23" s="32" t="inlineStr">
+        <is>
+          <t>B2012309-</t>
+        </is>
+      </c>
+      <c r="E23" s="32" t="inlineStr">
         <is>
           <t>B2000281-</t>
         </is>
       </c>
-      <c r="F23" s="35" t="inlineStr">
+      <c r="F23" s="32" t="inlineStr">
         <is>
           <t>B2000116-</t>
         </is>
       </c>
-      <c r="G23" s="35" t="inlineStr">
-        <is>
-          <t>b2000779-</t>
-        </is>
-      </c>
-      <c r="H23" s="35" t="inlineStr">
+      <c r="G23" s="32" t="inlineStr">
+        <is>
+          <t>B1004418-</t>
+        </is>
+      </c>
+      <c r="H23" s="32" t="inlineStr">
         <is>
           <t>B2000798-</t>
         </is>
       </c>
-      <c r="I23" s="35" t="inlineStr">
+      <c r="I23" s="32" t="inlineStr">
         <is>
           <t>B1007702-</t>
         </is>
       </c>
-      <c r="J23" s="35" t="inlineStr">
+      <c r="J23" s="32" t="inlineStr">
         <is>
           <t>b1001280-</t>
         </is>
       </c>
-      <c r="K23" s="35" t="inlineStr">
+      <c r="K23" s="32" t="inlineStr">
         <is>
           <t>M1015675-</t>
         </is>
       </c>
-      <c r="L23" s="35" t="inlineStr">
+      <c r="L23" s="32" t="inlineStr">
         <is>
           <t>B2000918-</t>
         </is>
       </c>
-      <c r="M23" s="35" t="inlineStr">
+      <c r="M23" s="32" t="inlineStr">
         <is>
           <t>B2000678-</t>
         </is>
       </c>
-      <c r="N23" s="35" t="inlineStr">
+      <c r="N23" s="32" t="inlineStr">
         <is>
           <t>b2010520-</t>
         </is>
       </c>
-      <c r="O23" s="35" t="inlineStr">
-        <is>
-          <t>P1227869-</t>
-        </is>
-      </c>
-      <c r="P23" s="35" t="inlineStr">
-        <is>
-          <t>B2000160-</t>
-        </is>
-      </c>
-      <c r="Q23" s="35" t="inlineStr">
-        <is>
-          <t>T1000004-</t>
-        </is>
-      </c>
-      <c r="R23" s="35" t="inlineStr">
-        <is>
-          <t>T1000611-</t>
-        </is>
-      </c>
-      <c r="S23" s="35" t="inlineStr">
+      <c r="O23" s="32" t="inlineStr">
+        <is>
+          <t>b2011540-</t>
+        </is>
+      </c>
+      <c r="P23" s="32" t="inlineStr">
+        <is>
+          <t>B2012295-</t>
+        </is>
+      </c>
+      <c r="Q23" s="32" t="inlineStr">
+        <is>
+          <t>T1001025-</t>
+        </is>
+      </c>
+      <c r="R23" s="32" t="inlineStr">
+        <is>
+          <t>B2012293-</t>
+        </is>
+      </c>
+      <c r="S23" s="32" t="inlineStr">
         <is>
           <t>B2010709-</t>
         </is>
       </c>
-      <c r="T23" s="35" t="inlineStr">
+      <c r="T23" s="32" t="inlineStr">
         <is>
           <t>B1008378-</t>
         </is>
       </c>
-      <c r="U23" s="35" t="inlineStr">
-        <is>
-          <t>T2001706-</t>
-        </is>
-      </c>
-      <c r="V23" s="35" t="inlineStr">
+      <c r="U23" s="32" t="inlineStr">
+        <is>
+          <t>B2012290-</t>
+        </is>
+      </c>
+      <c r="V23" s="32" t="inlineStr">
         <is>
           <t>b2010525-</t>
         </is>
       </c>
-      <c r="W23" s="35" t="inlineStr">
-        <is>
-          <t>B2011107-</t>
-        </is>
-      </c>
-      <c r="X23" s="35" t="inlineStr">
+      <c r="W23" s="33" t="inlineStr">
+        <is>
+          <t>B2011539-
+b2009950-</t>
+        </is>
+      </c>
+      <c r="X23" s="32" t="inlineStr">
         <is>
           <t>B2010610-</t>
         </is>
       </c>
-      <c r="Y23" s="35" t="inlineStr">
+      <c r="Y23" s="32" t="inlineStr">
         <is>
           <t>T2000267-</t>
         </is>
       </c>
-      <c r="Z23" s="35" t="inlineStr">
+      <c r="Z23" s="32" t="inlineStr">
         <is>
           <t>b1008456-</t>
         </is>
       </c>
-      <c r="AA23" s="35" t="inlineStr">
-        <is>
-          <t>B2010077-</t>
-        </is>
-      </c>
-      <c r="AB23" s="35" t="inlineStr">
-        <is>
-          <t>t1001293-</t>
-        </is>
-      </c>
-      <c r="AC23" s="35" t="inlineStr">
+      <c r="AA23" s="32" t="inlineStr">
+        <is>
+          <t>B2012297-</t>
+        </is>
+      </c>
+      <c r="AB23" s="32" t="inlineStr">
+        <is>
+          <t>T2002989-</t>
+        </is>
+      </c>
+      <c r="AC23" s="32" t="inlineStr">
         <is>
           <t>b2000083-</t>
         </is>
       </c>
-      <c r="AD23" s="35" t="inlineStr">
+      <c r="AD23" s="32" t="inlineStr">
         <is>
           <t>B1005029-</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="n"/>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="A24" s="21" t="n"/>
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -3886,144 +3913,153 @@
       </c>
     </row>
     <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="33" t="n"/>
-      <c r="B25" s="35" t="n"/>
-      <c r="C25" s="35" t="inlineStr">
+      <c r="A25" s="30" t="n"/>
+      <c r="B25" s="32" t="n"/>
+      <c r="C25" s="32" t="inlineStr">
         <is>
           <t>B1005610-</t>
         </is>
       </c>
-      <c r="D25" s="35" t="inlineStr">
-        <is>
-          <t>t2000184-</t>
-        </is>
-      </c>
-      <c r="E25" s="35" t="inlineStr">
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>B1008397-</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="inlineStr">
         <is>
           <t>B2011346-</t>
         </is>
       </c>
-      <c r="F25" s="35" t="inlineStr">
+      <c r="F25" s="32" t="inlineStr">
         <is>
           <t>b2000814-</t>
         </is>
       </c>
-      <c r="G25" s="35" t="inlineStr">
+      <c r="G25" s="32" t="inlineStr">
         <is>
           <t>T2002349-</t>
         </is>
       </c>
-      <c r="H25" s="35" t="inlineStr">
+      <c r="H25" s="32" t="inlineStr">
         <is>
           <t>B1006722-</t>
         </is>
       </c>
-      <c r="I25" s="35" t="inlineStr">
-        <is>
-          <t>t1000701-</t>
-        </is>
-      </c>
-      <c r="J25" s="35" t="inlineStr">
+      <c r="I25" s="32" t="inlineStr">
+        <is>
+          <t>B2011403-</t>
+        </is>
+      </c>
+      <c r="J25" s="32" t="inlineStr">
         <is>
           <t>b1008734-</t>
         </is>
       </c>
-      <c r="K25" s="35" t="inlineStr">
+      <c r="K25" s="32" t="inlineStr">
         <is>
           <t>B2011355-</t>
         </is>
       </c>
-      <c r="L25" s="35" t="inlineStr">
-        <is>
-          <t>B1007781-</t>
-        </is>
-      </c>
-      <c r="M25" s="35" t="inlineStr">
+      <c r="L25" s="32" t="inlineStr">
+        <is>
+          <t>T2001018-</t>
+        </is>
+      </c>
+      <c r="M25" s="32" t="inlineStr">
         <is>
           <t>B2010791-</t>
         </is>
       </c>
-      <c r="N25" s="35" t="n"/>
-      <c r="O25" s="35" t="inlineStr">
+      <c r="N25" s="33" t="inlineStr">
+        <is>
+          <t>B2010522-
+b2010552-</t>
+        </is>
+      </c>
+      <c r="O25" s="32" t="inlineStr">
         <is>
           <t>T2002736-</t>
         </is>
       </c>
-      <c r="P25" s="35" t="inlineStr">
+      <c r="P25" s="32" t="inlineStr">
         <is>
           <t>B1009007-</t>
         </is>
       </c>
-      <c r="Q25" s="35" t="inlineStr">
+      <c r="Q25" s="32" t="inlineStr">
         <is>
           <t>B2010263-</t>
         </is>
       </c>
-      <c r="R25" s="35" t="inlineStr">
+      <c r="R25" s="32" t="inlineStr">
         <is>
           <t>B2010315-</t>
         </is>
       </c>
-      <c r="S25" s="35" t="inlineStr">
+      <c r="S25" s="32" t="inlineStr">
         <is>
           <t>B1007782-</t>
         </is>
       </c>
-      <c r="T25" s="35" t="inlineStr">
+      <c r="T25" s="32" t="inlineStr">
         <is>
           <t>B2010700-</t>
         </is>
       </c>
-      <c r="U25" s="35" t="n"/>
-      <c r="V25" s="35" t="inlineStr">
+      <c r="U25" s="32" t="inlineStr">
+        <is>
+          <t>B2011405-</t>
+        </is>
+      </c>
+      <c r="V25" s="32" t="inlineStr">
         <is>
           <t>t1000821-</t>
         </is>
       </c>
-      <c r="W25" s="35" t="inlineStr">
+      <c r="W25" s="32" t="inlineStr">
         <is>
           <t>T2002715-</t>
         </is>
       </c>
-      <c r="X25" s="35" t="inlineStr">
-        <is>
-          <t>T1000005-</t>
-        </is>
-      </c>
-      <c r="Y25" s="35" t="inlineStr">
-        <is>
-          <t>B2010542-</t>
-        </is>
-      </c>
-      <c r="Z25" s="35" t="inlineStr">
+      <c r="X25" s="32" t="inlineStr">
+        <is>
+          <t>P1226738-</t>
+        </is>
+      </c>
+      <c r="Y25" s="32" t="inlineStr">
+        <is>
+          <t>T2003401-</t>
+        </is>
+      </c>
+      <c r="Z25" s="32" t="inlineStr">
         <is>
           <t>B1007438-</t>
         </is>
       </c>
-      <c r="AA25" s="35" t="inlineStr">
+      <c r="AA25" s="32" t="inlineStr">
         <is>
           <t>B1004436-</t>
         </is>
       </c>
-      <c r="AB25" s="35" t="inlineStr">
+      <c r="AB25" s="32" t="inlineStr">
         <is>
           <t>B1005905-</t>
         </is>
       </c>
-      <c r="AC25" s="35" t="inlineStr">
+      <c r="AC25" s="32" t="inlineStr">
         <is>
           <t>B2000536-</t>
         </is>
       </c>
-      <c r="AD25" s="35" t="inlineStr">
+      <c r="AD25" s="32" t="inlineStr">
         <is>
           <t>B1006670-</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="n"/>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="A26" s="21" t="n"/>
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -4170,141 +4206,152 @@
       </c>
     </row>
     <row r="27" ht="35" customHeight="1">
-      <c r="A27" s="33" t="n"/>
-      <c r="B27" s="35" t="n"/>
-      <c r="C27" s="35" t="inlineStr">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="32" t="n"/>
+      <c r="C27" s="32" t="inlineStr">
         <is>
           <t>B2000861-</t>
         </is>
       </c>
-      <c r="D27" s="35" t="inlineStr">
-        <is>
-          <t>T2001710-</t>
-        </is>
-      </c>
-      <c r="E27" s="35" t="inlineStr">
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>B2010151-</t>
+        </is>
+      </c>
+      <c r="E27" s="32" t="inlineStr">
         <is>
           <t>t2001779-</t>
         </is>
       </c>
-      <c r="F27" s="35" t="inlineStr">
-        <is>
-          <t>B2000864-</t>
-        </is>
-      </c>
-      <c r="G27" s="35" t="inlineStr">
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>T2000218-</t>
+        </is>
+      </c>
+      <c r="G27" s="32" t="inlineStr">
         <is>
           <t>b1008316-</t>
         </is>
       </c>
-      <c r="H27" s="35" t="inlineStr">
-        <is>
-          <t>B2000862-</t>
-        </is>
-      </c>
-      <c r="I27" s="35" t="n"/>
-      <c r="J27" s="35" t="inlineStr">
+      <c r="H27" s="32" t="inlineStr">
+        <is>
+          <t>T2003035-</t>
+        </is>
+      </c>
+      <c r="I27" s="32" t="inlineStr">
+        <is>
+          <t>T2003348-</t>
+        </is>
+      </c>
+      <c r="J27" s="32" t="inlineStr">
         <is>
           <t>B1005064-</t>
         </is>
       </c>
-      <c r="K27" s="35" t="n"/>
-      <c r="L27" s="35" t="inlineStr">
+      <c r="K27" s="32" t="inlineStr">
+        <is>
+          <t>X1000075-</t>
+        </is>
+      </c>
+      <c r="L27" s="32" t="inlineStr">
         <is>
           <t>B2010707-</t>
         </is>
       </c>
-      <c r="M27" s="35" t="inlineStr">
+      <c r="M27" s="32" t="inlineStr">
         <is>
           <t>B1007791-</t>
         </is>
       </c>
-      <c r="N27" s="35" t="inlineStr">
+      <c r="N27" s="32" t="inlineStr">
         <is>
           <t>B2000855-</t>
         </is>
       </c>
-      <c r="O27" s="35" t="inlineStr">
+      <c r="O27" s="32" t="inlineStr">
         <is>
           <t>b2010291-</t>
         </is>
       </c>
-      <c r="P27" s="35" t="inlineStr">
+      <c r="P27" s="32" t="inlineStr">
         <is>
           <t>T2001082-</t>
         </is>
       </c>
-      <c r="Q27" s="35" t="inlineStr">
-        <is>
-          <t>B2011187-</t>
-        </is>
-      </c>
-      <c r="R27" s="35" t="inlineStr">
+      <c r="Q27" s="32" t="inlineStr">
+        <is>
+          <t>t2001214-</t>
+        </is>
+      </c>
+      <c r="R27" s="32" t="inlineStr">
         <is>
           <t>t1000383-</t>
         </is>
       </c>
-      <c r="S27" s="36" t="inlineStr">
-        <is>
-          <t>B1008336-
-b1008444-</t>
-        </is>
-      </c>
-      <c r="T27" s="35" t="inlineStr">
+      <c r="S27" s="32" t="inlineStr">
+        <is>
+          <t>T1000563-</t>
+        </is>
+      </c>
+      <c r="T27" s="32" t="inlineStr">
         <is>
           <t>b2000060-</t>
         </is>
       </c>
-      <c r="U27" s="35" t="inlineStr">
+      <c r="U27" s="32" t="inlineStr">
         <is>
           <t>b2000718-</t>
         </is>
       </c>
-      <c r="V27" s="35" t="inlineStr">
-        <is>
-          <t>B2000604-</t>
-        </is>
-      </c>
-      <c r="W27" s="35" t="inlineStr">
+      <c r="V27" s="32" t="inlineStr">
+        <is>
+          <t>M1017697-</t>
+        </is>
+      </c>
+      <c r="W27" s="32" t="inlineStr">
         <is>
           <t>B2010691-</t>
         </is>
       </c>
-      <c r="X27" s="35" t="inlineStr">
+      <c r="X27" s="32" t="inlineStr">
         <is>
           <t>B2000073-</t>
         </is>
       </c>
-      <c r="Y27" s="35" t="inlineStr">
-        <is>
-          <t>B1009035-</t>
-        </is>
-      </c>
-      <c r="Z27" s="35" t="inlineStr">
+      <c r="Y27" s="32" t="inlineStr">
+        <is>
+          <t>B1007152-</t>
+        </is>
+      </c>
+      <c r="Z27" s="32" t="inlineStr">
         <is>
           <t>B2010132-</t>
         </is>
       </c>
-      <c r="AA27" s="35" t="inlineStr">
+      <c r="AA27" s="32" t="inlineStr">
         <is>
           <t>B2010447-</t>
         </is>
       </c>
-      <c r="AB27" s="35" t="inlineStr">
+      <c r="AB27" s="32" t="inlineStr">
         <is>
           <t>B2010604-</t>
         </is>
       </c>
-      <c r="AC27" s="35" t="inlineStr">
+      <c r="AC27" s="32" t="inlineStr">
         <is>
           <t>B2000596-</t>
         </is>
       </c>
-      <c r="AD27" s="35" t="n"/>
+      <c r="AD27" s="32" t="inlineStr">
+        <is>
+          <t>B2010273-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="n"/>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="A28" s="21" t="n"/>
+      <c r="B28" s="20" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -4451,420 +4498,428 @@
       </c>
     </row>
     <row r="29" ht="35" customHeight="1">
-      <c r="A29" s="33" t="n"/>
-      <c r="B29" s="35" t="n"/>
-      <c r="C29" s="35" t="inlineStr">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="32" t="n"/>
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>B2011351-</t>
         </is>
       </c>
-      <c r="D29" s="35" t="inlineStr">
-        <is>
-          <t>B2009984-</t>
-        </is>
-      </c>
-      <c r="E29" s="35" t="inlineStr">
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>B2011530-</t>
+        </is>
+      </c>
+      <c r="E29" s="32" t="inlineStr">
         <is>
           <t>B2010316-</t>
         </is>
       </c>
-      <c r="F29" s="35" t="inlineStr">
-        <is>
-          <t>T1000788-</t>
-        </is>
-      </c>
-      <c r="G29" s="35" t="inlineStr">
+      <c r="F29" s="32" t="inlineStr">
+        <is>
+          <t>B2011401-</t>
+        </is>
+      </c>
+      <c r="G29" s="32" t="inlineStr">
         <is>
           <t>B2000302-</t>
         </is>
       </c>
-      <c r="H29" s="35" t="inlineStr">
+      <c r="H29" s="32" t="inlineStr">
         <is>
           <t>B2010472-</t>
         </is>
       </c>
-      <c r="I29" s="35" t="inlineStr">
+      <c r="I29" s="32" t="inlineStr">
         <is>
           <t>t2001206-</t>
         </is>
       </c>
-      <c r="J29" s="35" t="inlineStr">
-        <is>
-          <t>X1000140-</t>
-        </is>
-      </c>
-      <c r="K29" s="35" t="n"/>
-      <c r="L29" s="35" t="inlineStr">
-        <is>
-          <t>B2010600-</t>
-        </is>
-      </c>
-      <c r="M29" s="35" t="inlineStr">
+      <c r="J29" s="32" t="inlineStr">
+        <is>
+          <t>T1000005-</t>
+        </is>
+      </c>
+      <c r="K29" s="32" t="inlineStr">
+        <is>
+          <t>B2011876-</t>
+        </is>
+      </c>
+      <c r="L29" s="32" t="inlineStr">
+        <is>
+          <t>T2003165-</t>
+        </is>
+      </c>
+      <c r="M29" s="32" t="inlineStr">
         <is>
           <t>B2010105-</t>
         </is>
       </c>
-      <c r="N29" s="35" t="inlineStr">
-        <is>
-          <t>M1015680-</t>
-        </is>
-      </c>
-      <c r="O29" s="35" t="inlineStr">
+      <c r="N29" s="32" t="inlineStr">
+        <is>
+          <t>B1007419-</t>
+        </is>
+      </c>
+      <c r="O29" s="32" t="inlineStr">
         <is>
           <t>b1008603-</t>
         </is>
       </c>
-      <c r="P29" s="35" t="inlineStr">
-        <is>
-          <t>B2010552-</t>
-        </is>
-      </c>
-      <c r="Q29" s="35" t="inlineStr">
+      <c r="P29" s="32" t="n"/>
+      <c r="Q29" s="32" t="inlineStr">
         <is>
           <t>B2010320-</t>
         </is>
       </c>
-      <c r="R29" s="35" t="inlineStr">
-        <is>
-          <t>T1000120-</t>
-        </is>
-      </c>
-      <c r="S29" s="35" t="inlineStr">
+      <c r="R29" s="32" t="inlineStr">
+        <is>
+          <t>B2012242-</t>
+        </is>
+      </c>
+      <c r="S29" s="32" t="inlineStr">
         <is>
           <t>B2010153-</t>
         </is>
       </c>
-      <c r="T29" s="35" t="inlineStr">
+      <c r="T29" s="32" t="inlineStr">
         <is>
           <t>B1009166-</t>
         </is>
       </c>
-      <c r="U29" s="35" t="inlineStr">
+      <c r="U29" s="32" t="inlineStr">
         <is>
           <t>B2000301-</t>
         </is>
       </c>
-      <c r="V29" s="35" t="inlineStr">
+      <c r="V29" s="32" t="inlineStr">
         <is>
           <t>T2001176-</t>
         </is>
       </c>
-      <c r="W29" s="35" t="inlineStr">
+      <c r="W29" s="32" t="inlineStr">
         <is>
           <t>B1009063-</t>
         </is>
       </c>
-      <c r="X29" s="35" t="inlineStr">
+      <c r="X29" s="32" t="inlineStr">
         <is>
           <t>B2011197-</t>
         </is>
       </c>
-      <c r="Y29" s="35" t="inlineStr">
+      <c r="Y29" s="32" t="inlineStr">
         <is>
           <t>B2011188-</t>
         </is>
       </c>
-      <c r="Z29" s="35" t="inlineStr">
+      <c r="Z29" s="32" t="inlineStr">
         <is>
           <t>B1007901-</t>
         </is>
       </c>
-      <c r="AA29" s="35" t="inlineStr">
+      <c r="AA29" s="32" t="inlineStr">
         <is>
           <t>B2011219-</t>
         </is>
       </c>
-      <c r="AB29" s="35" t="inlineStr">
+      <c r="AB29" s="32" t="inlineStr">
         <is>
           <t>M1016626-</t>
         </is>
       </c>
-      <c r="AC29" s="35" t="inlineStr">
-        <is>
-          <t>B2011191-</t>
-        </is>
-      </c>
-      <c r="AD29" s="35" t="inlineStr">
+      <c r="AC29" s="32" t="inlineStr">
+        <is>
+          <t>B2011187-</t>
+        </is>
+      </c>
+      <c r="AD29" s="32" t="inlineStr">
         <is>
           <t>B2010868-</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="n"/>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="A30" s="21" t="n"/>
+      <c r="B30" s="20" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C30" s="22" t="inlineStr">
+      <c r="C30" s="19" t="inlineStr">
         <is>
           <t>09281A</t>
         </is>
       </c>
-      <c r="D30" s="22" t="inlineStr">
+      <c r="D30" s="19" t="inlineStr">
         <is>
           <t>09282A</t>
         </is>
       </c>
-      <c r="E30" s="22" t="inlineStr">
+      <c r="E30" s="19" t="inlineStr">
         <is>
           <t>09261A</t>
         </is>
       </c>
-      <c r="F30" s="22" t="inlineStr">
+      <c r="F30" s="19" t="inlineStr">
         <is>
           <t>09262A</t>
         </is>
       </c>
-      <c r="G30" s="22" t="inlineStr">
+      <c r="G30" s="19" t="inlineStr">
         <is>
           <t>09241A</t>
         </is>
       </c>
-      <c r="H30" s="22" t="inlineStr">
+      <c r="H30" s="19" t="inlineStr">
         <is>
           <t>09242A</t>
         </is>
       </c>
-      <c r="I30" s="22" t="inlineStr">
+      <c r="I30" s="19" t="inlineStr">
         <is>
           <t>09221A</t>
         </is>
       </c>
-      <c r="J30" s="22" t="inlineStr">
+      <c r="J30" s="19" t="inlineStr">
         <is>
           <t>09222A</t>
         </is>
       </c>
-      <c r="K30" s="22" t="inlineStr">
+      <c r="K30" s="19" t="inlineStr">
         <is>
           <t>09201A</t>
         </is>
       </c>
-      <c r="L30" s="22" t="inlineStr">
+      <c r="L30" s="19" t="inlineStr">
         <is>
           <t>09202A</t>
         </is>
       </c>
-      <c r="M30" s="22" t="inlineStr">
+      <c r="M30" s="19" t="inlineStr">
         <is>
           <t>09181A</t>
         </is>
       </c>
-      <c r="N30" s="22" t="inlineStr">
+      <c r="N30" s="19" t="inlineStr">
         <is>
           <t>09182A</t>
         </is>
       </c>
-      <c r="O30" s="22" t="inlineStr">
+      <c r="O30" s="19" t="inlineStr">
         <is>
           <t>09161A</t>
         </is>
       </c>
-      <c r="P30" s="22" t="inlineStr">
+      <c r="P30" s="19" t="inlineStr">
         <is>
           <t>09162A</t>
         </is>
       </c>
-      <c r="Q30" s="22" t="inlineStr">
+      <c r="Q30" s="19" t="inlineStr">
         <is>
           <t>09141A</t>
         </is>
       </c>
-      <c r="R30" s="22" t="inlineStr">
+      <c r="R30" s="19" t="inlineStr">
         <is>
           <t>09142A</t>
         </is>
       </c>
-      <c r="S30" s="22" t="inlineStr">
+      <c r="S30" s="19" t="inlineStr">
         <is>
           <t>09121A</t>
         </is>
       </c>
-      <c r="T30" s="22" t="inlineStr">
+      <c r="T30" s="19" t="inlineStr">
         <is>
           <t>09122A</t>
         </is>
       </c>
-      <c r="U30" s="22" t="inlineStr">
+      <c r="U30" s="19" t="inlineStr">
         <is>
           <t>09101A</t>
         </is>
       </c>
-      <c r="V30" s="22" t="inlineStr">
+      <c r="V30" s="19" t="inlineStr">
         <is>
           <t>09102A</t>
         </is>
       </c>
-      <c r="W30" s="22" t="inlineStr">
+      <c r="W30" s="19" t="inlineStr">
         <is>
           <t>09081A</t>
         </is>
       </c>
-      <c r="X30" s="22" t="inlineStr">
+      <c r="X30" s="19" t="inlineStr">
         <is>
           <t>09082A</t>
         </is>
       </c>
-      <c r="Y30" s="22" t="inlineStr">
+      <c r="Y30" s="19" t="inlineStr">
         <is>
           <t>09061A</t>
         </is>
       </c>
-      <c r="Z30" s="22" t="inlineStr">
+      <c r="Z30" s="19" t="inlineStr">
         <is>
           <t>09062A</t>
         </is>
       </c>
-      <c r="AA30" s="22" t="inlineStr">
+      <c r="AA30" s="19" t="inlineStr">
         <is>
           <t>09041A</t>
         </is>
       </c>
-      <c r="AB30" s="22" t="inlineStr">
+      <c r="AB30" s="19" t="inlineStr">
         <is>
           <t>09042A</t>
         </is>
       </c>
-      <c r="AC30" s="22" t="inlineStr">
+      <c r="AC30" s="19" t="inlineStr">
         <is>
           <t>09021A</t>
         </is>
       </c>
-      <c r="AD30" s="22" t="inlineStr">
+      <c r="AD30" s="19" t="inlineStr">
         <is>
           <t>09022A</t>
         </is>
       </c>
     </row>
     <row r="31" ht="35" customHeight="1">
-      <c r="A31" s="38" t="n"/>
-      <c r="B31" s="35" t="n"/>
-      <c r="C31" s="34" t="inlineStr">
+      <c r="A31" s="34" t="n"/>
+      <c r="B31" s="32" t="n"/>
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>B2000561-</t>
         </is>
       </c>
-      <c r="D31" s="34" t="inlineStr">
+      <c r="D31" s="31" t="inlineStr">
         <is>
           <t>T1001298-</t>
         </is>
       </c>
-      <c r="E31" s="34" t="inlineStr">
-        <is>
-          <t>T2000043-</t>
-        </is>
-      </c>
-      <c r="F31" s="34" t="inlineStr">
+      <c r="E31" s="31" t="n"/>
+      <c r="F31" s="31" t="inlineStr">
         <is>
           <t>B1006351-</t>
         </is>
       </c>
-      <c r="G31" s="34" t="inlineStr">
+      <c r="G31" s="31" t="inlineStr">
         <is>
           <t>T2001478-</t>
         </is>
       </c>
-      <c r="H31" s="34" t="inlineStr">
+      <c r="H31" s="31" t="inlineStr">
         <is>
           <t>B2000866-</t>
         </is>
       </c>
-      <c r="I31" s="34" t="inlineStr">
-        <is>
-          <t>T2001543-</t>
-        </is>
-      </c>
-      <c r="J31" s="34" t="inlineStr">
-        <is>
-          <t>B2010141-</t>
-        </is>
-      </c>
-      <c r="K31" s="34" t="inlineStr">
+      <c r="I31" s="31" t="inlineStr">
+        <is>
+          <t>T2001260-</t>
+        </is>
+      </c>
+      <c r="J31" s="31" t="inlineStr">
+        <is>
+          <t>B2000306-</t>
+        </is>
+      </c>
+      <c r="K31" s="31" t="inlineStr">
         <is>
           <t>B2010413-</t>
         </is>
       </c>
-      <c r="L31" s="34" t="inlineStr">
+      <c r="L31" s="31" t="inlineStr">
         <is>
           <t>T2002762-</t>
         </is>
       </c>
-      <c r="M31" s="34" t="inlineStr">
+      <c r="M31" s="31" t="inlineStr">
         <is>
           <t>B1008933-</t>
         </is>
       </c>
-      <c r="N31" s="34" t="inlineStr">
+      <c r="N31" s="31" t="inlineStr">
         <is>
           <t>B2010423-</t>
         </is>
       </c>
-      <c r="O31" s="34" t="inlineStr">
+      <c r="O31" s="31" t="inlineStr">
         <is>
           <t>U1000134-</t>
         </is>
       </c>
-      <c r="P31" s="34" t="inlineStr">
+      <c r="P31" s="31" t="inlineStr">
         <is>
           <t>U1000125-</t>
         </is>
       </c>
-      <c r="Q31" s="34" t="inlineStr">
+      <c r="Q31" s="31" t="inlineStr">
         <is>
           <t>T2001102-</t>
         </is>
       </c>
-      <c r="R31" s="34" t="inlineStr">
-        <is>
-          <t>T1001031-</t>
-        </is>
-      </c>
-      <c r="S31" s="34" t="n"/>
-      <c r="T31" s="34" t="n"/>
-      <c r="U31" s="34" t="inlineStr">
+      <c r="R31" s="31" t="inlineStr">
+        <is>
+          <t>P1075198-</t>
+        </is>
+      </c>
+      <c r="S31" s="31" t="inlineStr">
+        <is>
+          <t>U1000080-</t>
+        </is>
+      </c>
+      <c r="T31" s="31" t="inlineStr">
+        <is>
+          <t>a1003664-</t>
+        </is>
+      </c>
+      <c r="U31" s="31" t="inlineStr">
         <is>
           <t>B1009021-</t>
         </is>
       </c>
-      <c r="V31" s="34" t="inlineStr">
+      <c r="V31" s="31" t="inlineStr">
         <is>
           <t>B2010302-</t>
         </is>
       </c>
-      <c r="W31" s="34" t="inlineStr">
+      <c r="W31" s="31" t="inlineStr">
         <is>
           <t>b1006999-</t>
         </is>
       </c>
-      <c r="X31" s="34" t="inlineStr">
+      <c r="X31" s="31" t="inlineStr">
         <is>
           <t>U1000117-</t>
         </is>
       </c>
-      <c r="Y31" s="34" t="inlineStr">
+      <c r="Y31" s="31" t="inlineStr">
         <is>
           <t>U1000064-</t>
         </is>
       </c>
-      <c r="Z31" s="34" t="inlineStr">
+      <c r="Z31" s="31" t="inlineStr">
         <is>
           <t>T1001105-</t>
         </is>
       </c>
-      <c r="AA31" s="34" t="n"/>
-      <c r="AB31" s="34" t="inlineStr">
+      <c r="AA31" s="31" t="n"/>
+      <c r="AB31" s="31" t="inlineStr">
         <is>
           <t>U1000110-</t>
         </is>
       </c>
-      <c r="AC31" s="34" t="inlineStr">
+      <c r="AC31" s="31" t="inlineStr">
         <is>
           <t>M1001498-</t>
         </is>
       </c>
-      <c r="AD31" s="34" t="n"/>
+      <c r="AD31" s="31" t="inlineStr">
+        <is>
+          <t>M1012389-</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" s="13" t="n"/>
